--- a/XLOOKUP excel examples of comprehension.xlsx
+++ b/XLOOKUP excel examples of comprehension.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99094714e0505a96/Desktop/Data Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF3FD8E-86FD-45D9-AB7D-BC2406278E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{1BF3FD8E-86FD-45D9-AB7D-BC2406278E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089B5614-3026-47D8-A1D6-08C64B2A77A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="16440" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
     <sheet name="XLookUp Multiple Rows" sheetId="6" r:id="rId2"/>
-    <sheet name="XLookUp Exact Match" sheetId="8" r:id="rId3"/>
-    <sheet name="XLookUp Search Order" sheetId="9" r:id="rId4"/>
-    <sheet name="XLookUp Horizontal" sheetId="4" r:id="rId5"/>
-    <sheet name="XLookUp w SUM" sheetId="7" r:id="rId6"/>
-    <sheet name="VLookUp" sheetId="2" r:id="rId7"/>
+    <sheet name="XLookUp Search Order" sheetId="9" r:id="rId3"/>
+    <sheet name="XLookUp Horizontal" sheetId="4" r:id="rId4"/>
+    <sheet name="XLookUp w SUM" sheetId="7" r:id="rId5"/>
+    <sheet name="VLookUp" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="96">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -322,12 +321,6 @@
     <t>February-March</t>
   </si>
   <si>
-    <t>Toby Flender</t>
-  </si>
-  <si>
-    <t>Kevin Malo</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -344,6 +337,18 @@
   </si>
   <si>
     <t>examples in cells b3 and b4</t>
+  </si>
+  <si>
+    <t>Xlookup example in cell c3</t>
+  </si>
+  <si>
+    <t>example in cell b2</t>
+  </si>
+  <si>
+    <t>example in cell b7</t>
+  </si>
+  <si>
+    <t>example in cell b3</t>
   </si>
 </sst>
 </file>
@@ -359,12 +364,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,10 +390,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027015F-D30F-450C-928C-DE78480974B7}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,9 +734,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -1109,6 +1118,11 @@
       </c>
       <c r="P10" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
@@ -1133,7 +1147,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,6 +1567,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" t="str">
         <f t="shared" ref="I22:I23" si="0">CONCATENATE(G12," ",H12)</f>
@@ -1571,427 +1590,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7D64C-38C9-4586-AD37-471BFBE38708}">
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2">
-        <v>45000</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3">
-        <v>1002</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>36000</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>1003</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4">
-        <v>63000</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>1004</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5">
-        <v>47000</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6">
-        <v>1005</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6">
-        <v>50000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>1006</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7">
-        <v>65000</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <v>1007</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8">
-        <v>41000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <v>1008</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>48000</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>1009</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10">
-        <v>42000</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="str">
-        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A42832-12A0-41C9-BED0-20D277223524}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2007,9 +1616,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -2046,10 +1652,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>1001</v>
@@ -2087,7 +1693,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, N2:N10, I2:I10,,1)</f>
@@ -2310,6 +1916,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F9">
         <v>1008</v>
       </c>
@@ -2396,18 +2005,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -2607,222 +2216,245 @@
         <v>180</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>450</v>
+      </c>
+      <c r="I2">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>750</v>
+      </c>
+      <c r="L2">
+        <v>440</v>
+      </c>
+      <c r="M2">
+        <v>485</v>
+      </c>
+      <c r="N2">
+        <v>510</v>
+      </c>
+      <c r="O2">
+        <v>347</v>
+      </c>
+      <c r="P2">
+        <v>736</v>
+      </c>
+      <c r="Q2">
+        <v>155</v>
+      </c>
+      <c r="R2">
+        <v>450</v>
+      </c>
+      <c r="S2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>71</v>
+      </c>
+      <c r="N3">
+        <v>57</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>41</v>
+      </c>
+      <c r="R3">
+        <v>58</v>
+      </c>
+      <c r="S3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>118</v>
+      </c>
+      <c r="J4">
+        <v>145</v>
+      </c>
+      <c r="K4">
+        <v>210</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>170</v>
+      </c>
+      <c r="N4">
+        <v>130</v>
+      </c>
+      <c r="O4">
+        <v>90</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
+      </c>
+      <c r="Q4">
+        <v>110</v>
+      </c>
+      <c r="R4">
+        <v>130</v>
+      </c>
+      <c r="S4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2:_xlfn.XLOOKUP(J1,H1:S1,H2:S2)))</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F9C169-12D8-441E-870D-6C6EF0F6521C}">
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2">
-        <v>450</v>
-      </c>
-      <c r="I2">
-        <v>310</v>
-      </c>
-      <c r="J2">
-        <v>150</v>
-      </c>
-      <c r="K2">
-        <v>750</v>
-      </c>
-      <c r="L2">
-        <v>440</v>
-      </c>
-      <c r="M2">
-        <v>485</v>
-      </c>
-      <c r="N2">
-        <v>510</v>
-      </c>
-      <c r="O2">
-        <v>347</v>
-      </c>
-      <c r="P2">
-        <v>736</v>
-      </c>
-      <c r="Q2">
-        <v>155</v>
-      </c>
-      <c r="R2">
-        <v>450</v>
-      </c>
-      <c r="S2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3">
-        <v>75</v>
-      </c>
-      <c r="I3">
-        <v>40</v>
-      </c>
-      <c r="J3">
-        <v>65</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="L3">
-        <v>24</v>
-      </c>
-      <c r="M3">
-        <v>71</v>
-      </c>
-      <c r="N3">
-        <v>57</v>
-      </c>
-      <c r="O3">
-        <v>61</v>
-      </c>
-      <c r="P3">
-        <v>34</v>
-      </c>
-      <c r="Q3">
-        <v>41</v>
-      </c>
-      <c r="R3">
-        <v>58</v>
-      </c>
-      <c r="S3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4">
-        <v>118</v>
-      </c>
-      <c r="J4">
-        <v>145</v>
-      </c>
-      <c r="K4">
-        <v>210</v>
-      </c>
-      <c r="L4">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>170</v>
-      </c>
-      <c r="N4">
-        <v>130</v>
-      </c>
-      <c r="O4">
-        <v>90</v>
-      </c>
-      <c r="P4">
-        <v>55</v>
-      </c>
-      <c r="Q4">
-        <v>110</v>
-      </c>
-      <c r="R4">
-        <v>130</v>
-      </c>
-      <c r="S4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2:_xlfn.XLOOKUP(J1,H1:S1,H2:S2)))</f>
-        <v>310</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F9C169-12D8-441E-870D-6C6EF0F6521C}">
-  <dimension ref="A1:P10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,7 +2495,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
@@ -3221,6 +2853,11 @@
       </c>
       <c r="P10" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
